--- a/inst/extdata/connection.xlsx
+++ b/inst/extdata/connection.xlsx
@@ -29,6 +29,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,16 +111,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="2.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -127,54 +128,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
